--- a/txt/통합 문서1.xlsx
+++ b/txt/통합 문서1.xlsx
@@ -21,6 +21,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>18-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +105,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -361,21 +405,21 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="C1">
         <f>A1*B1</f>
-        <v>3290</v>
+        <v>3365</v>
       </c>
       <c r="D1">
         <v>5</v>
       </c>
       <c r="E1">
-        <v>1181</v>
+        <v>1205</v>
       </c>
       <c r="F1">
         <f>D1*E1</f>
-        <v>5905</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -383,11 +427,11 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C6" si="0">A2*B2</f>
-        <v>1215</v>
+        <v>1245</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -405,11 +449,11 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>1290</v>
+        <v>1440</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -427,21 +471,21 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="D4">
         <v>60</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>4200</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -449,18 +493,21 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>6960</v>
+        <v>7680</v>
       </c>
       <c r="D5">
         <v>120</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -468,11 +515,11 @@
         <v>480</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>7200</v>
       </c>
       <c r="D6">
         <v>480</v>
@@ -485,22 +532,223 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>SUM(C1:C6)</f>
-        <v>20795</v>
+        <v>23030</v>
       </c>
       <c r="F7">
         <f>SUM(F1:F6)</f>
-        <v>11095</v>
+        <v>12235</v>
       </c>
       <c r="G7">
         <f>SUM(C7:F7)</f>
-        <v>31890</v>
+        <v>35265</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G8">
         <f>G7/60/24</f>
-        <v>22.145833333333332</v>
-      </c>
+        <v>24.489583333333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10.5</v>
+      </c>
+      <c r="C12">
+        <v>10.5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12.2</v>
+      </c>
+      <c r="C13">
+        <v>12.2</v>
+      </c>
+      <c r="D13">
+        <v>2.4</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>14.5</v>
+      </c>
+      <c r="C14">
+        <v>14.5</v>
+      </c>
+      <c r="D14">
+        <v>2.9</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>3.4</v>
+      </c>
+      <c r="E15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>6.4</v>
+      </c>
+      <c r="E17">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>42.5</v>
+      </c>
+      <c r="C18">
+        <v>42.5</v>
+      </c>
+      <c r="D18">
+        <v>8.5</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B12:B18)</f>
+        <v>155.69999999999999</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C12:C18)*2</f>
+        <v>311.39999999999998</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D12:D18)*2</f>
+        <v>61.2</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E12:E18)*2</f>
+        <v>19.799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>350</v>
+      </c>
+      <c r="D20">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>B20-B21</f>
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:E22" si="2">C20-C21</f>
+        <v>350</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <f>B22/15</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:E23" si="3">C22/15</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/txt/통합 문서1.xlsx
+++ b/txt/통합 문서1.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -459,15 +455,15 @@
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:L2" si="0">D2+D7</f>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -494,15 +490,15 @@
       </c>
       <c r="J3" s="1">
         <f>J2/18+0.4</f>
-        <v>4.9000000000000004</v>
+        <v>3.5111111111111111</v>
       </c>
       <c r="K3" s="1">
         <f>K2/18+0.1</f>
-        <v>0.98888888888888882</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="L3" s="1">
         <f>L2/18+0.1</f>
-        <v>0.48888888888888893</v>
+        <v>0.32222222222222219</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -563,19 +559,11 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>25</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -661,18 +649,30 @@
         <v>498</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">SUM(D2:D12)</f>
-        <v>757</v>
+        <f t="shared" ref="D13:F13" si="1">SUM(D2:D12)</f>
+        <v>732</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2"/>
+      <c r="I13">
+        <v>66</v>
+      </c>
+      <c r="J13">
+        <v>87</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
@@ -681,23 +681,55 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ref="D14:F14" si="2">D13/18</f>
-        <v>42.055555555555557</v>
+        <v>40.666666666666664</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>8.1111111111111107</v>
+        <v>7.8888888888888893</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>3.7222222222222223</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="G14" s="1">
         <f>C14+D14+E14*5+F14*10</f>
-        <v>147.5</v>
+        <v>143.33333333333331</v>
+      </c>
+      <c r="I14" s="2">
+        <f>C13-I13</f>
+        <v>432</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ref="J14:L14" si="3">D13-J13</f>
+        <v>645</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G15" s="1"/>
+      <c r="I15" s="1">
+        <f>I14/18</f>
+        <v>24</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" ref="J15:L15" si="4">J14/18</f>
+        <v>35.833333333333336</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1666666666666665</v>
+      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>

--- a/txt/통합 문서1.xlsx
+++ b/txt/통합 문서1.xlsx
@@ -113,7 +113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +136,9 @@
       <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -429,79 +432,58 @@
     <col min="3" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5">
-        <v>56</v>
-      </c>
-      <c r="D2" s="5">
-        <v>56</v>
-      </c>
-      <c r="E2" s="5">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="7">
-        <v>26</v>
-      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="2">
-        <f>C2+C7</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:L2" si="0">D2+D7</f>
-        <v>56</v>
+        <f>SUM(C3:C6)</f>
+        <v>370</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="K2:M2" si="0">SUM(D3:D6)</f>
+        <v>371</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="4">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5">
-        <v>72</v>
-      </c>
-      <c r="D3" s="5">
-        <v>72</v>
-      </c>
-      <c r="E3" s="5">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5">
-        <v>6</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="4"/>
-      <c r="I3" s="1">
-        <f>I2/18+0.4</f>
-        <v>3.5111111111111111</v>
-      </c>
-      <c r="J3" s="1">
-        <f>J2/18+0.4</f>
-        <v>3.5111111111111111</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <f>K2/18+0.1</f>
-        <v>0.76666666666666661</v>
+        <f>SUM(D9:D11)</f>
+        <v>200</v>
       </c>
       <c r="L3" s="1">
-        <f>L2/18+0.1</f>
-        <v>0.32222222222222219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L3:M3" si="1">SUM(E9:E11)</f>
+        <v>34</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>28</v>
@@ -520,7 +502,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>29</v>
@@ -538,8 +520,24 @@
         <v>10</v>
       </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <f>SUM(J2:J4)</f>
+        <v>370</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:M5" si="2">SUM(K2:K4)</f>
+        <v>571</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>30</v>
@@ -557,33 +555,69 @@
         <v>14</v>
       </c>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>101</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <f>J5-J6</f>
+        <v>310</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:M7" si="3">K5-K6</f>
+        <v>470</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="4">
-        <v>26</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="5">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <f>J7/19</f>
+        <v>16.315789473684209</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:M8" si="4">K7/19</f>
+        <v>24.736842105263158</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8947368421052628</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3157894736842106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>27</v>
@@ -599,8 +633,27 @@
         <v>5</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="8">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <f>J8/$I9</f>
+        <v>1.6315789473684208</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:M9" si="5">K8/$I9</f>
+        <v>2.4736842105263159</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48947368421052628</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.23157894736842105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4">
         <v>28</v>
@@ -617,7 +670,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4">
         <v>29</v>
@@ -634,7 +687,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -643,22 +696,22 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
-        <v>498</v>
+        <v>370</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:F13" si="1">SUM(D2:D12)</f>
-        <v>732</v>
+        <f t="shared" ref="D13:F13" si="6">SUM(D2:D12)</f>
+        <v>571</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>142</v>
+        <f t="shared" si="6"/>
+        <v>110</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>51</v>
       </c>
       <c r="G13" s="2"/>
       <c r="I13">
@@ -674,61 +727,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <f>C13/18</f>
-        <v>27.666666666666668</v>
+        <v>20.555555555555557</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:F14" si="2">D13/18</f>
-        <v>40.666666666666664</v>
+        <f t="shared" ref="D14:F14" si="7">D13/18</f>
+        <v>31.722222222222221</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8888888888888893</v>
+        <f t="shared" si="7"/>
+        <v>6.1111111111111107</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>3.5555555555555554</v>
+        <f t="shared" si="7"/>
+        <v>2.8333333333333335</v>
       </c>
       <c r="G14" s="1">
         <f>C14+D14+E14*5+F14*10</f>
-        <v>143.33333333333331</v>
+        <v>111.16666666666666</v>
       </c>
       <c r="I14" s="2">
         <f>C13-I13</f>
-        <v>432</v>
+        <v>304</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" ref="J14:L14" si="3">D13-J13</f>
-        <v>645</v>
+        <f t="shared" ref="J14:L14" si="8">D13-J13</f>
+        <v>484</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <f t="shared" si="8"/>
+        <v>98</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G15" s="1"/>
       <c r="I15" s="1">
         <f>I14/18</f>
-        <v>24</v>
+        <v>16.888888888888889</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ref="J15:L15" si="4">J14/18</f>
-        <v>35.833333333333336</v>
+        <f t="shared" ref="J15:L15" si="9">J14/18</f>
+        <v>26.888888888888889</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
-        <v>7.2222222222222223</v>
+        <f t="shared" si="9"/>
+        <v>5.4444444444444446</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="4"/>
-        <v>3.1666666666666665</v>
+        <f t="shared" si="9"/>
+        <v>2.4444444444444446</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">

--- a/txt/통합 문서1.xlsx
+++ b/txt/통합 문서1.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -423,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,13 +557,13 @@
       </c>
       <c r="G6" s="6"/>
       <c r="J6">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -577,15 +578,15 @@
       <c r="G7" s="4"/>
       <c r="J7" s="2">
         <f>J5-J6</f>
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" ref="K7:M7" si="3">K5-K6</f>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
@@ -602,15 +603,15 @@
       <c r="G8" s="4"/>
       <c r="J8" s="1">
         <f>J7/19</f>
-        <v>16.315789473684209</v>
+        <v>16.526315789473685</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ref="K8:M8" si="4">K7/19</f>
-        <v>24.736842105263158</v>
+        <v>24.789473684210527</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>4.8947368421052628</v>
+        <v>4.9473684210526319</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="4"/>
@@ -638,15 +639,15 @@
       </c>
       <c r="J9" s="1">
         <f>J8/$I9</f>
-        <v>1.6315789473684208</v>
+        <v>1.6526315789473685</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ref="K9:M9" si="5">K8/$I9</f>
-        <v>2.4736842105263159</v>
+        <v>2.4789473684210526</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="5"/>
-        <v>0.48947368421052628</v>
+        <v>0.4947368421052632</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="5"/>
@@ -797,4 +798,179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>250</v>
+      </c>
+      <c r="C1">
+        <f>B1*A1</f>
+        <v>1250</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>74</v>
+      </c>
+      <c r="F1">
+        <f>E1*D1</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C6" si="0">B2*A2</f>
+        <v>240</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F6" si="1">E2*D2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2340</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>480</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>6720</v>
+      </c>
+      <c r="D6">
+        <v>480</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>SUM(C1:C6)</f>
+        <v>12860</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F1:F6)</f>
+        <v>6595</v>
+      </c>
+      <c r="G7">
+        <f>C7+F7</f>
+        <v>19455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f>G7/60</f>
+        <v>324.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>G8/24</f>
+        <v>13.510416666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>